--- a/Model/ExternalFiles/Файл с данными студентов.xlsx
+++ b/Model/ExternalFiles/Файл с данными студентов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>ФИО</t>
   </si>
@@ -31,12 +31,6 @@
   </si>
   <si>
     <t>02.08.1963</t>
-  </si>
-  <si>
-    <t>Хуев светин Федорович</t>
-  </si>
-  <si>
-    <t>Пиздос Игорь Хуев</t>
   </si>
   <si>
     <t>Я Игорь Федорович</t>
@@ -679,7 +673,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,14 +727,14 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
-        <v>4</v>
+      <c r="C3" s="25">
+        <v>9</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -759,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -771,14 +765,14 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25">
-        <v>9</v>
+      <c r="C5" s="5">
+        <v>4</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -797,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -816,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -828,14 +822,14 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
+      <c r="A8" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>3</v>
+      <c r="C8" s="25">
+        <v>-1</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -848,13 +842,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -866,14 +860,14 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>13</v>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="25">
-        <v>-1</v>
+      <c r="C10" s="5">
+        <v>4</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -886,10 +880,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
@@ -903,16 +897,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="11"/>
@@ -922,16 +907,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="13"/>
